--- a/007 - Análise de Viabilidade Sobre  um  Plano Gerador de Benefício Livre - PGBL/007 - Análise de Viabilidade Sobre  um  Plano Gerador de Benefício Livre - PGBL.xlsx
+++ b/007 - Análise de Viabilidade Sobre  um  Plano Gerador de Benefício Livre - PGBL/007 - Análise de Viabilidade Sobre  um  Plano Gerador de Benefício Livre - PGBL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marqu\Documents\Code\007 - Análise de Rendimentos Sobre  um  Plano Gerador de Benefício Livre - PBGL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marqu\Documents\Code\007 - Análise de Rendimentos Sobre  um  Plano Gerador de Benefício Livre - PGBL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939A3F1E-DFAB-4ACB-94C0-89DFC13D0FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4527F110-86CD-4AEF-95BE-3E99F2D81C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B76E65C5-79C3-44EE-8269-1F2173E76360}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>supondo uma renda anual bruta de</t>
   </si>
@@ -105,12 +105,6 @@
     <t>tributação CDB, 15% sobre a rentabilidade</t>
   </si>
   <si>
-    <t>Tributação total no CDB:</t>
-  </si>
-  <si>
-    <t>Tributação total no PGBL:</t>
-  </si>
-  <si>
     <t>Conclusão:</t>
   </si>
   <si>
@@ -135,12 +129,6 @@
     <t>Hipótese 01 -  aportes de R$ 8.700</t>
   </si>
   <si>
-    <t>Valor Líquido PGBL</t>
-  </si>
-  <si>
-    <t>Valor Líquido CDB</t>
-  </si>
-  <si>
     <t>Diferença:</t>
   </si>
   <si>
@@ -161,6 +149,18 @@
   <si>
     <t>CDB</t>
   </si>
+  <si>
+    <t>Dispêndio do CDB: (trib + 3.300 anual)</t>
+  </si>
+  <si>
+    <t>Dispêndio CDB:</t>
+  </si>
+  <si>
+    <t>Dispêndio do PGBL:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -170,7 +170,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
-    <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0"/>
+    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -262,7 +262,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -309,12 +309,15 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -446,7 +449,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$H$8:$H$22</c:f>
+              <c:f>Planilha1!$H$43:$H$57</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -500,7 +503,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-929A-4636-BE9D-12085FA390D9}"/>
+              <c16:uniqueId val="{00000000-0E7A-49CD-BF2E-FAD81809AE9A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -530,7 +533,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$I$8:$I$22</c:f>
+              <c:f>Planilha1!$I$43:$I$57</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -584,7 +587,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-929A-4636-BE9D-12085FA390D9}"/>
+              <c16:uniqueId val="{00000001-0E7A-49CD-BF2E-FAD81809AE9A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -614,7 +617,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$J$8:$J$22</c:f>
+              <c:f>Planilha1!$J$43:$J$57</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -668,7 +671,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-929A-4636-BE9D-12085FA390D9}"/>
+              <c16:uniqueId val="{00000002-0E7A-49CD-BF2E-FAD81809AE9A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -716,7 +719,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$K$8:$K$22</c:f>
+              <c:f>Planilha1!$K$43:$K$57</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -771,7 +774,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-929A-4636-BE9D-12085FA390D9}"/>
+              <c16:uniqueId val="{00000003-0E7A-49CD-BF2E-FAD81809AE9A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -955,6 +958,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="733778480"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1154,7 +1158,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$O$8:$O$22</c:f>
+              <c:f>Planilha1!$O$43:$O$57</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1162,53 +1166,53 @@
                   <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8700</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8700</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8700</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8700</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8700</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8700</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8700</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8700</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8700</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8700</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8700</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8700</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8700</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8700</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B8A1-488A-9899-96777D0A2410}"/>
+              <c16:uniqueId val="{00000000-C44F-4B43-9390-0A5530509B72}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1238,7 +1242,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$P$8:$P$22</c:f>
+              <c:f>Planilha1!$P$43:$P$57</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1292,7 +1296,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B8A1-488A-9899-96777D0A2410}"/>
+              <c16:uniqueId val="{00000001-C44F-4B43-9390-0A5530509B72}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1322,7 +1326,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$Q$8:$Q$22</c:f>
+              <c:f>Planilha1!$Q$43:$Q$57</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1333,50 +1337,50 @@
                   <c:v>920.04000000000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1657.6084668000001</c:v>
+                  <c:v>1910.6194668000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2451.726307949556</c:v>
+                  <c:v>2977.1466613195562</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3306.7291639800487</c:v>
+                  <c:v>4125.4444958429267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4227.2850889823985</c:v>
+                  <c:v>5361.7823253392035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5218.42003675468</c:v>
+                  <c:v>6692.9101762229593</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6285.5453009726607</c:v>
+                  <c:v>8126.0955994339738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7434.4870591982344</c:v>
+                  <c:v>9669.1633490425756</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8671.5181820269627</c:v>
+                  <c:v>11330.538103013672</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10003.392481042971</c:v>
+                  <c:v>13119.29045937173</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11437.381582564536</c:v>
+                  <c:v>15045.186458891762</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12981.314628499758</c:v>
+                  <c:v>17118.740904694991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14643.621021066834</c:v>
+                  <c:v>19351.274769857955</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16433.37644475203</c:v>
+                  <c:v>21754.977006462963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B8A1-488A-9899-96777D0A2410}"/>
+              <c16:uniqueId val="{00000002-C44F-4B43-9390-0A5530509B72}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1424,7 +1428,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$R$8:$R$22</c:f>
+              <c:f>Planilha1!$R$43:$R$57</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1432,46 +1436,46 @@
                   <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21620.04</c:v>
+                  <c:v>24920.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31977.648466800001</c:v>
+                  <c:v>38830.659466800003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43129.374774749558</c:v>
+                  <c:v>53807.806128119562</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55136.103938729604</c:v>
+                  <c:v>69933.250623962478</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68063.389027712008</c:v>
+                  <c:v>87295.032949301676</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81981.809064466681</c:v>
+                  <c:v>105987.94312552463</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96967.354365439343</c:v>
+                  <c:v>126114.03872495861</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>113101.84142463758</c:v>
+                  <c:v>147783.20207400119</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>130473.35960666454</c:v>
+                  <c:v>171113.74017701487</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>149176.75208770751</c:v>
+                  <c:v>196233.0306363866</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>169314.13367027204</c:v>
+                  <c:v>223278.21709527835</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>190995.44829877181</c:v>
+                  <c:v>252396.95799997333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>214339.06931983863</c:v>
+                  <c:v>283748.23276983126</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>239472.44576459067</c:v>
+                  <c:v>317503.20977629424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,7 +1483,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B8A1-488A-9899-96777D0A2410}"/>
+              <c16:uniqueId val="{00000003-C44F-4B43-9390-0A5530509B72}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1610,7 +1614,6 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50000"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1648,7 +1651,7 @@
         <c:crossAx val="737211008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="8000"/>
+        <c:majorUnit val="10000"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
         </c:dispUnits>
@@ -1864,7 +1867,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$H$43:$H$57</c:f>
+              <c:f>Planilha1!$H$8:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1918,7 +1921,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E7A-49CD-BF2E-FAD81809AE9A}"/>
+              <c16:uniqueId val="{00000000-929A-4636-BE9D-12085FA390D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1948,7 +1951,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$I$43:$I$57</c:f>
+              <c:f>Planilha1!$I$8:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2002,7 +2005,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0E7A-49CD-BF2E-FAD81809AE9A}"/>
+              <c16:uniqueId val="{00000001-929A-4636-BE9D-12085FA390D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2032,7 +2035,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$J$43:$J$57</c:f>
+              <c:f>Planilha1!$J$8:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2086,7 +2089,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0E7A-49CD-BF2E-FAD81809AE9A}"/>
+              <c16:uniqueId val="{00000002-929A-4636-BE9D-12085FA390D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2134,7 +2137,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$K$43:$K$57</c:f>
+              <c:f>Planilha1!$K$8:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2189,7 +2192,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0E7A-49CD-BF2E-FAD81809AE9A}"/>
+              <c16:uniqueId val="{00000003-929A-4636-BE9D-12085FA390D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2573,7 +2576,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$O$43:$O$57</c:f>
+              <c:f>Planilha1!$O$8:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2581,53 +2584,53 @@
                   <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12000</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12000</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12000</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12000</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12000</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12000</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12000</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12000</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12000</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12000</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12000</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12000</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12000</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C44F-4B43-9390-0A5530509B72}"/>
+              <c16:uniqueId val="{00000000-B8A1-488A-9899-96777D0A2410}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2657,7 +2660,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$P$43:$P$57</c:f>
+              <c:f>Planilha1!$P$8:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2711,7 +2714,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C44F-4B43-9390-0A5530509B72}"/>
+              <c16:uniqueId val="{00000001-B8A1-488A-9899-96777D0A2410}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2741,7 +2744,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$Q$43:$Q$57</c:f>
+              <c:f>Planilha1!$Q$8:$Q$22</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2752,50 +2755,50 @@
                   <c:v>920.04000000000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1910.6194668000001</c:v>
+                  <c:v>1657.6084668000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2977.1466613195562</c:v>
+                  <c:v>2451.726307949556</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4125.4444958429267</c:v>
+                  <c:v>3306.7291639800487</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5361.7823253392035</c:v>
+                  <c:v>4227.2850889823985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6692.9101762229593</c:v>
+                  <c:v>5218.42003675468</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8126.0955994339738</c:v>
+                  <c:v>6285.5453009726607</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9669.1633490425756</c:v>
+                  <c:v>7434.4870591982344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11330.538103013672</c:v>
+                  <c:v>8671.5181820269627</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13119.29045937173</c:v>
+                  <c:v>10003.392481042971</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15045.186458891762</c:v>
+                  <c:v>11437.381582564536</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17118.740904694991</c:v>
+                  <c:v>12981.314628499758</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19351.274769857955</c:v>
+                  <c:v>14643.621021066834</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21754.977006462963</c:v>
+                  <c:v>16433.37644475203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C44F-4B43-9390-0A5530509B72}"/>
+              <c16:uniqueId val="{00000002-B8A1-488A-9899-96777D0A2410}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2843,7 +2846,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$R$43:$R$57</c:f>
+              <c:f>Planilha1!$R$8:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2851,46 +2854,46 @@
                   <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24920.04</c:v>
+                  <c:v>21620.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38830.659466800003</c:v>
+                  <c:v>31977.648466800001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53807.806128119562</c:v>
+                  <c:v>43129.374774749558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69933.250623962478</c:v>
+                  <c:v>55136.103938729604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87295.032949301676</c:v>
+                  <c:v>68063.389027712008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105987.94312552463</c:v>
+                  <c:v>81981.809064466681</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>126114.03872495861</c:v>
+                  <c:v>96967.354365439343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>147783.20207400119</c:v>
+                  <c:v>113101.84142463758</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>171113.74017701487</c:v>
+                  <c:v>130473.35960666454</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>196233.0306363866</c:v>
+                  <c:v>149176.75208770751</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>223278.21709527835</c:v>
+                  <c:v>169314.13367027204</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>252396.95799997333</c:v>
+                  <c:v>190995.44829877181</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>283748.23276983126</c:v>
+                  <c:v>214339.06931983863</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>317503.20977629424</c:v>
+                  <c:v>239472.44576459067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2898,7 +2901,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C44F-4B43-9390-0A5530509B72}"/>
+              <c16:uniqueId val="{00000003-B8A1-488A-9899-96777D0A2410}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2969,6 +2972,7 @@
         <c:axId val="733783936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3029,6 +3033,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -3066,7 +3071,7 @@
         <c:crossAx val="737211008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10000"/>
+        <c:majorUnit val="8000"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
         </c:dispUnits>
@@ -10357,21 +10362,21 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Agrupar 7">
+        <xdr:cNvPr id="9" name="Agrupar 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5B01C1-A267-E873-852C-6151CFCB357D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296CE7C5-21C9-4BA8-A959-572399DF0B86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10379,18 +10384,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17875624" y="197224"/>
-          <a:ext cx="10399058" cy="3747247"/>
+          <a:off x="17844977" y="6113721"/>
+          <a:ext cx="10402186" cy="3703674"/>
           <a:chOff x="17861280" y="198120"/>
           <a:chExt cx="6964680" cy="2682240"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="2" name="Gráfico 1">
+          <xdr:cNvPr id="10" name="Gráfico 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C5C54B-F715-1D00-E70A-3A0E25C77485}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FEB54E-F83F-A447-9DEA-1758CE034685}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10408,10 +10413,10 @@
       </xdr:graphicFrame>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="5" name="Gráfico 4">
+          <xdr:cNvPr id="11" name="Gráfico 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA61AB2-A05D-4DBC-A6D9-484A94CED0C0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD68F9C7-9C40-3A5F-66F1-062AFB684A2F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10436,21 +10441,21 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="Agrupar 8">
+        <xdr:cNvPr id="12" name="Agrupar 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296CE7C5-21C9-4BA8-A959-572399DF0B86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF6799C2-F19B-BE75-E7E2-307C5191783F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10458,57 +10463,172 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17875624" y="6185647"/>
-          <a:ext cx="10399058" cy="3747247"/>
-          <a:chOff x="17861280" y="198120"/>
-          <a:chExt cx="6964680" cy="2682240"/>
+          <a:off x="17844977" y="194930"/>
+          <a:ext cx="10402186" cy="3703675"/>
+          <a:chOff x="17875624" y="197224"/>
+          <a:chExt cx="10399058" cy="3747247"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="10" name="Gráfico 9">
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="Agrupar 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FEB54E-F83F-A447-9DEA-1758CE034685}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5B01C1-A267-E873-852C-6151CFCB357D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGraphicFramePr/>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="17861280" y="198120"/>
-          <a:ext cx="3482340" cy="2682240"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="11" name="Gráfico 10">
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="17875624" y="197224"/>
+            <a:ext cx="10399058" cy="3747247"/>
+            <a:chOff x="17861280" y="198120"/>
+            <a:chExt cx="6964680" cy="2682240"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C5C54B-F715-1D00-E70A-3A0E25C77485}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="17861280" y="198120"/>
+            <a:ext cx="3482340" cy="2682240"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Gráfico 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA61AB2-A05D-4DBC-A6D9-484A94CED0C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="21343620" y="198120"/>
+            <a:ext cx="3482340" cy="2682240"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="Conector reto 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD68F9C7-9C40-3A5F-66F1-062AFB684A2F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ADFA551-BD6C-B1E8-2555-7B6DE50BFF70}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGraphicFramePr>
-            <a:graphicFrameLocks/>
-          </xdr:cNvGraphicFramePr>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="21343620" y="198120"/>
-          <a:ext cx="3482340" cy="2682240"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18207317" y="1506073"/>
+            <a:ext cx="9753600" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>322730</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>4876801</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conector reto 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D39A89-8A61-45DB-BFD8-6EAE6E87D7E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18198354" y="6884895"/>
+          <a:ext cx="9753600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10941,8 +11061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36000C65-8369-46B2-8998-BD6A74AAEDFB}">
   <dimension ref="A1:R1048553"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -10970,7 +11090,7 @@
         <v>100000</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
@@ -10978,7 +11098,7 @@
       <c r="J1" s="23"/>
       <c r="K1" s="24"/>
       <c r="M1" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N1" s="23"/>
       <c r="O1" s="23"/>
@@ -11102,7 +11222,7 @@
         <v>26217.213000000003</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>13</v>
@@ -11111,16 +11231,16 @@
         <v>14</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J7" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N7" s="30" t="s">
         <v>13</v>
@@ -11129,13 +11249,13 @@
         <v>14</v>
       </c>
       <c r="P7" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="30" t="s">
         <v>15</v>
       </c>
       <c r="R7" s="30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -11165,11 +11285,11 @@
         <v>0</v>
       </c>
       <c r="J8" s="26">
-        <f>G8*$K$3</f>
+        <f t="shared" ref="J8:J22" si="0">G8*$K$3</f>
         <v>0</v>
       </c>
       <c r="K8" s="26">
-        <f>SUM(G8:J8)</f>
+        <f t="shared" ref="K8:K22" si="1">SUM(G8:J8)</f>
         <v>12000</v>
       </c>
       <c r="M8" s="5">
@@ -11186,11 +11306,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="26">
-        <f>N8*$K$3</f>
+        <f t="shared" ref="Q8:Q22" si="2">N8*$K$3</f>
         <v>0</v>
       </c>
       <c r="R8" s="26">
-        <f>SUM(N8:Q8)</f>
+        <f t="shared" ref="R8:R22" si="3">SUM(N8:Q8)</f>
         <v>12000</v>
       </c>
     </row>
@@ -11208,45 +11328,45 @@
         <v>2</v>
       </c>
       <c r="G9" s="26">
-        <f>K8</f>
+        <f t="shared" ref="G9:G22" si="4">K8</f>
         <v>12000</v>
       </c>
       <c r="H9" s="26">
-        <f>-$D$23</f>
+        <f t="shared" ref="H9:H22" si="5">-$D$23</f>
         <v>8700</v>
       </c>
       <c r="I9" s="26">
-        <f>$D$22</f>
+        <f t="shared" ref="I9:I22" si="6">$D$22</f>
         <v>3300</v>
       </c>
       <c r="J9" s="26">
-        <f>G9*$K$3</f>
+        <f t="shared" si="0"/>
         <v>920.04000000000008</v>
       </c>
       <c r="K9" s="26">
-        <f>SUM(G9:J9)</f>
+        <f t="shared" si="1"/>
         <v>24920.04</v>
       </c>
       <c r="M9" s="5">
         <v>2</v>
       </c>
       <c r="N9" s="26">
-        <f>R8</f>
+        <f t="shared" ref="N9:N22" si="7">R8</f>
         <v>12000</v>
       </c>
       <c r="O9" s="26">
-        <f>-$D$23</f>
+        <f t="shared" ref="O9:O22" si="8">-$D$23</f>
         <v>8700</v>
       </c>
       <c r="P9" s="26">
         <v>0</v>
       </c>
       <c r="Q9" s="26">
-        <f>N9*$K$3</f>
+        <f t="shared" si="2"/>
         <v>920.04000000000008</v>
       </c>
       <c r="R9" s="26">
-        <f>SUM(N9:Q9)</f>
+        <f t="shared" si="3"/>
         <v>21620.04</v>
       </c>
     </row>
@@ -11255,45 +11375,45 @@
         <v>3</v>
       </c>
       <c r="G10" s="26">
-        <f>K9</f>
+        <f t="shared" si="4"/>
         <v>24920.04</v>
       </c>
       <c r="H10" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="5"/>
         <v>8700</v>
       </c>
       <c r="I10" s="26">
-        <f>$D$22</f>
+        <f t="shared" si="6"/>
         <v>3300</v>
       </c>
       <c r="J10" s="26">
-        <f>G10*$K$3</f>
+        <f t="shared" si="0"/>
         <v>1910.6194668000001</v>
       </c>
       <c r="K10" s="26">
-        <f>SUM(G10:J10)</f>
+        <f t="shared" si="1"/>
         <v>38830.659466800003</v>
       </c>
       <c r="M10" s="5">
         <v>3</v>
       </c>
       <c r="N10" s="26">
-        <f>R9</f>
+        <f t="shared" si="7"/>
         <v>21620.04</v>
       </c>
       <c r="O10" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="8"/>
         <v>8700</v>
       </c>
       <c r="P10" s="26">
         <v>0</v>
       </c>
       <c r="Q10" s="26">
-        <f>N10*$K$3</f>
+        <f t="shared" si="2"/>
         <v>1657.6084668000001</v>
       </c>
       <c r="R10" s="26">
-        <f>SUM(N10:Q10)</f>
+        <f t="shared" si="3"/>
         <v>31977.648466800001</v>
       </c>
     </row>
@@ -11312,45 +11432,45 @@
         <v>4</v>
       </c>
       <c r="G11" s="26">
-        <f>K10</f>
+        <f t="shared" si="4"/>
         <v>38830.659466800003</v>
       </c>
       <c r="H11" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="5"/>
         <v>8700</v>
       </c>
       <c r="I11" s="26">
-        <f>$D$22</f>
+        <f t="shared" si="6"/>
         <v>3300</v>
       </c>
       <c r="J11" s="26">
-        <f>G11*$K$3</f>
+        <f t="shared" si="0"/>
         <v>2977.1466613195562</v>
       </c>
       <c r="K11" s="26">
-        <f>SUM(G11:J11)</f>
+        <f t="shared" si="1"/>
         <v>53807.806128119562</v>
       </c>
       <c r="M11" s="5">
         <v>4</v>
       </c>
       <c r="N11" s="26">
-        <f>R10</f>
+        <f t="shared" si="7"/>
         <v>31977.648466800001</v>
       </c>
       <c r="O11" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="8"/>
         <v>8700</v>
       </c>
       <c r="P11" s="26">
         <v>0</v>
       </c>
       <c r="Q11" s="26">
-        <f>N11*$K$3</f>
+        <f t="shared" si="2"/>
         <v>2451.726307949556</v>
       </c>
       <c r="R11" s="26">
-        <f>SUM(N11:Q11)</f>
+        <f t="shared" si="3"/>
         <v>43129.374774749558</v>
       </c>
     </row>
@@ -11368,45 +11488,45 @@
         <v>5</v>
       </c>
       <c r="G12" s="26">
-        <f>K11</f>
+        <f t="shared" si="4"/>
         <v>53807.806128119562</v>
       </c>
       <c r="H12" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="5"/>
         <v>8700</v>
       </c>
       <c r="I12" s="26">
-        <f>$D$22</f>
+        <f t="shared" si="6"/>
         <v>3300</v>
       </c>
       <c r="J12" s="26">
-        <f>G12*$K$3</f>
+        <f t="shared" si="0"/>
         <v>4125.4444958429267</v>
       </c>
       <c r="K12" s="26">
-        <f>SUM(G12:J12)</f>
+        <f t="shared" si="1"/>
         <v>69933.250623962478</v>
       </c>
       <c r="M12" s="5">
         <v>5</v>
       </c>
       <c r="N12" s="26">
-        <f>R11</f>
+        <f t="shared" si="7"/>
         <v>43129.374774749558</v>
       </c>
       <c r="O12" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="8"/>
         <v>8700</v>
       </c>
       <c r="P12" s="26">
         <v>0</v>
       </c>
       <c r="Q12" s="26">
-        <f>N12*$K$3</f>
+        <f t="shared" si="2"/>
         <v>3306.7291639800487</v>
       </c>
       <c r="R12" s="26">
-        <f>SUM(N12:Q12)</f>
+        <f t="shared" si="3"/>
         <v>55136.103938729604</v>
       </c>
     </row>
@@ -11419,45 +11539,45 @@
         <v>6</v>
       </c>
       <c r="G13" s="26">
-        <f>K12</f>
+        <f t="shared" si="4"/>
         <v>69933.250623962478</v>
       </c>
       <c r="H13" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="5"/>
         <v>8700</v>
       </c>
       <c r="I13" s="26">
-        <f>$D$22</f>
+        <f t="shared" si="6"/>
         <v>3300</v>
       </c>
       <c r="J13" s="26">
-        <f>G13*$K$3</f>
+        <f t="shared" si="0"/>
         <v>5361.7823253392035</v>
       </c>
       <c r="K13" s="26">
-        <f>SUM(G13:J13)</f>
+        <f t="shared" si="1"/>
         <v>87295.032949301676</v>
       </c>
       <c r="M13" s="5">
         <v>6</v>
       </c>
       <c r="N13" s="26">
-        <f>R12</f>
+        <f t="shared" si="7"/>
         <v>55136.103938729604</v>
       </c>
       <c r="O13" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="8"/>
         <v>8700</v>
       </c>
       <c r="P13" s="26">
         <v>0</v>
       </c>
       <c r="Q13" s="26">
-        <f>N13*$K$3</f>
+        <f t="shared" si="2"/>
         <v>4227.2850889823985</v>
       </c>
       <c r="R13" s="26">
-        <f>SUM(N13:Q13)</f>
+        <f t="shared" si="3"/>
         <v>68063.389027712008</v>
       </c>
     </row>
@@ -11479,45 +11599,45 @@
         <v>7</v>
       </c>
       <c r="G14" s="26">
-        <f>K13</f>
+        <f t="shared" si="4"/>
         <v>87295.032949301676</v>
       </c>
       <c r="H14" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="5"/>
         <v>8700</v>
       </c>
       <c r="I14" s="26">
-        <f>$D$22</f>
+        <f t="shared" si="6"/>
         <v>3300</v>
       </c>
       <c r="J14" s="26">
-        <f>G14*$K$3</f>
+        <f t="shared" si="0"/>
         <v>6692.9101762229593</v>
       </c>
       <c r="K14" s="26">
-        <f>SUM(G14:J14)</f>
+        <f t="shared" si="1"/>
         <v>105987.94312552463</v>
       </c>
       <c r="M14" s="5">
         <v>7</v>
       </c>
       <c r="N14" s="26">
-        <f>R13</f>
+        <f t="shared" si="7"/>
         <v>68063.389027712008</v>
       </c>
       <c r="O14" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="8"/>
         <v>8700</v>
       </c>
       <c r="P14" s="26">
         <v>0</v>
       </c>
       <c r="Q14" s="26">
-        <f>N14*$K$3</f>
+        <f t="shared" si="2"/>
         <v>5218.42003675468</v>
       </c>
       <c r="R14" s="26">
-        <f>SUM(N14:Q14)</f>
+        <f t="shared" si="3"/>
         <v>81981.809064466681</v>
       </c>
     </row>
@@ -11539,45 +11659,45 @@
         <v>8</v>
       </c>
       <c r="G15" s="26">
-        <f>K14</f>
+        <f t="shared" si="4"/>
         <v>105987.94312552463</v>
       </c>
       <c r="H15" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="5"/>
         <v>8700</v>
       </c>
       <c r="I15" s="26">
-        <f>$D$22</f>
+        <f t="shared" si="6"/>
         <v>3300</v>
       </c>
       <c r="J15" s="26">
-        <f>G15*$K$3</f>
+        <f t="shared" si="0"/>
         <v>8126.0955994339738</v>
       </c>
       <c r="K15" s="26">
-        <f>SUM(G15:J15)</f>
+        <f t="shared" si="1"/>
         <v>126114.03872495861</v>
       </c>
       <c r="M15" s="5">
         <v>8</v>
       </c>
       <c r="N15" s="26">
-        <f>R14</f>
+        <f t="shared" si="7"/>
         <v>81981.809064466681</v>
       </c>
       <c r="O15" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="8"/>
         <v>8700</v>
       </c>
       <c r="P15" s="26">
         <v>0</v>
       </c>
       <c r="Q15" s="26">
-        <f>N15*$K$3</f>
+        <f t="shared" si="2"/>
         <v>6285.5453009726607</v>
       </c>
       <c r="R15" s="26">
-        <f>SUM(N15:Q15)</f>
+        <f t="shared" si="3"/>
         <v>96967.354365439343</v>
       </c>
     </row>
@@ -11599,45 +11719,45 @@
         <v>9</v>
       </c>
       <c r="G16" s="26">
-        <f>K15</f>
+        <f t="shared" si="4"/>
         <v>126114.03872495861</v>
       </c>
       <c r="H16" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="5"/>
         <v>8700</v>
       </c>
       <c r="I16" s="26">
-        <f>$D$22</f>
+        <f t="shared" si="6"/>
         <v>3300</v>
       </c>
       <c r="J16" s="26">
-        <f>G16*$K$3</f>
+        <f t="shared" si="0"/>
         <v>9669.1633490425756</v>
       </c>
       <c r="K16" s="26">
-        <f>SUM(G16:J16)</f>
+        <f t="shared" si="1"/>
         <v>147783.20207400119</v>
       </c>
       <c r="M16" s="5">
         <v>9</v>
       </c>
       <c r="N16" s="26">
-        <f>R15</f>
+        <f t="shared" si="7"/>
         <v>96967.354365439343</v>
       </c>
       <c r="O16" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="8"/>
         <v>8700</v>
       </c>
       <c r="P16" s="26">
         <v>0</v>
       </c>
       <c r="Q16" s="26">
-        <f>N16*$K$3</f>
+        <f t="shared" si="2"/>
         <v>7434.4870591982344</v>
       </c>
       <c r="R16" s="26">
-        <f>SUM(N16:Q16)</f>
+        <f t="shared" si="3"/>
         <v>113101.84142463758</v>
       </c>
     </row>
@@ -11659,45 +11779,45 @@
         <v>10</v>
       </c>
       <c r="G17" s="26">
-        <f>K16</f>
+        <f t="shared" si="4"/>
         <v>147783.20207400119</v>
       </c>
       <c r="H17" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="5"/>
         <v>8700</v>
       </c>
       <c r="I17" s="26">
-        <f>$D$22</f>
+        <f t="shared" si="6"/>
         <v>3300</v>
       </c>
       <c r="J17" s="26">
-        <f>G17*$K$3</f>
+        <f t="shared" si="0"/>
         <v>11330.538103013672</v>
       </c>
       <c r="K17" s="26">
-        <f>SUM(G17:J17)</f>
+        <f t="shared" si="1"/>
         <v>171113.74017701487</v>
       </c>
       <c r="M17" s="5">
         <v>10</v>
       </c>
       <c r="N17" s="26">
-        <f>R16</f>
+        <f t="shared" si="7"/>
         <v>113101.84142463758</v>
       </c>
       <c r="O17" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="8"/>
         <v>8700</v>
       </c>
       <c r="P17" s="26">
         <v>0</v>
       </c>
       <c r="Q17" s="26">
-        <f>N17*$K$3</f>
+        <f t="shared" si="2"/>
         <v>8671.5181820269627</v>
       </c>
       <c r="R17" s="26">
-        <f>SUM(N17:Q17)</f>
+        <f t="shared" si="3"/>
         <v>130473.35960666454</v>
       </c>
     </row>
@@ -11720,45 +11840,45 @@
         <v>11</v>
       </c>
       <c r="G18" s="26">
-        <f>K17</f>
+        <f t="shared" si="4"/>
         <v>171113.74017701487</v>
       </c>
       <c r="H18" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="5"/>
         <v>8700</v>
       </c>
       <c r="I18" s="26">
-        <f>$D$22</f>
+        <f t="shared" si="6"/>
         <v>3300</v>
       </c>
       <c r="J18" s="26">
-        <f>G18*$K$3</f>
+        <f t="shared" si="0"/>
         <v>13119.29045937173</v>
       </c>
       <c r="K18" s="26">
-        <f>SUM(G18:J18)</f>
+        <f t="shared" si="1"/>
         <v>196233.0306363866</v>
       </c>
       <c r="M18" s="5">
         <v>11</v>
       </c>
       <c r="N18" s="26">
-        <f>R17</f>
+        <f t="shared" si="7"/>
         <v>130473.35960666454</v>
       </c>
       <c r="O18" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="8"/>
         <v>8700</v>
       </c>
       <c r="P18" s="26">
         <v>0</v>
       </c>
       <c r="Q18" s="26">
-        <f>N18*$K$3</f>
+        <f t="shared" si="2"/>
         <v>10003.392481042971</v>
       </c>
       <c r="R18" s="26">
-        <f>SUM(N18:Q18)</f>
+        <f t="shared" si="3"/>
         <v>149176.75208770751</v>
       </c>
     </row>
@@ -11779,45 +11899,45 @@
         <v>12</v>
       </c>
       <c r="G19" s="26">
-        <f>K18</f>
+        <f t="shared" si="4"/>
         <v>196233.0306363866</v>
       </c>
       <c r="H19" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="5"/>
         <v>8700</v>
       </c>
       <c r="I19" s="26">
-        <f>$D$22</f>
+        <f t="shared" si="6"/>
         <v>3300</v>
       </c>
       <c r="J19" s="26">
-        <f>G19*$K$3</f>
+        <f t="shared" si="0"/>
         <v>15045.186458891762</v>
       </c>
       <c r="K19" s="26">
-        <f>SUM(G19:J19)</f>
+        <f t="shared" si="1"/>
         <v>223278.21709527835</v>
       </c>
       <c r="M19" s="5">
         <v>12</v>
       </c>
       <c r="N19" s="26">
-        <f>R18</f>
+        <f t="shared" si="7"/>
         <v>149176.75208770751</v>
       </c>
       <c r="O19" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="8"/>
         <v>8700</v>
       </c>
       <c r="P19" s="26">
         <v>0</v>
       </c>
       <c r="Q19" s="26">
-        <f>N19*$K$3</f>
+        <f t="shared" si="2"/>
         <v>11437.381582564536</v>
       </c>
       <c r="R19" s="26">
-        <f>SUM(N19:Q19)</f>
+        <f t="shared" si="3"/>
         <v>169314.13367027204</v>
       </c>
     </row>
@@ -11835,45 +11955,45 @@
         <v>13</v>
       </c>
       <c r="G20" s="26">
-        <f>K19</f>
+        <f t="shared" si="4"/>
         <v>223278.21709527835</v>
       </c>
       <c r="H20" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="5"/>
         <v>8700</v>
       </c>
       <c r="I20" s="26">
-        <f>$D$22</f>
+        <f t="shared" si="6"/>
         <v>3300</v>
       </c>
       <c r="J20" s="26">
-        <f>G20*$K$3</f>
+        <f t="shared" si="0"/>
         <v>17118.740904694991</v>
       </c>
       <c r="K20" s="26">
-        <f>SUM(G20:J20)</f>
+        <f t="shared" si="1"/>
         <v>252396.95799997333</v>
       </c>
       <c r="M20" s="5">
         <v>13</v>
       </c>
       <c r="N20" s="26">
-        <f>R19</f>
+        <f t="shared" si="7"/>
         <v>169314.13367027204</v>
       </c>
       <c r="O20" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="8"/>
         <v>8700</v>
       </c>
       <c r="P20" s="26">
         <v>0</v>
       </c>
       <c r="Q20" s="26">
-        <f>N20*$K$3</f>
+        <f t="shared" si="2"/>
         <v>12981.314628499758</v>
       </c>
       <c r="R20" s="26">
-        <f>SUM(N20:Q20)</f>
+        <f t="shared" si="3"/>
         <v>190995.44829877181</v>
       </c>
     </row>
@@ -11882,45 +12002,45 @@
         <v>14</v>
       </c>
       <c r="G21" s="26">
-        <f>K20</f>
+        <f t="shared" si="4"/>
         <v>252396.95799997333</v>
       </c>
       <c r="H21" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="5"/>
         <v>8700</v>
       </c>
       <c r="I21" s="26">
-        <f>$D$22</f>
+        <f t="shared" si="6"/>
         <v>3300</v>
       </c>
       <c r="J21" s="26">
-        <f>G21*$K$3</f>
+        <f t="shared" si="0"/>
         <v>19351.274769857955</v>
       </c>
       <c r="K21" s="26">
-        <f>SUM(G21:J21)</f>
+        <f t="shared" si="1"/>
         <v>283748.23276983126</v>
       </c>
       <c r="M21" s="5">
         <v>14</v>
       </c>
       <c r="N21" s="26">
-        <f>R20</f>
+        <f t="shared" si="7"/>
         <v>190995.44829877181</v>
       </c>
       <c r="O21" s="26">
-        <f>-$D$23</f>
+        <f t="shared" si="8"/>
         <v>8700</v>
       </c>
       <c r="P21" s="26">
         <v>0</v>
       </c>
       <c r="Q21" s="26">
-        <f>N21*$K$3</f>
+        <f t="shared" si="2"/>
         <v>14643.621021066834</v>
       </c>
       <c r="R21" s="26">
-        <f>SUM(N21:Q21)</f>
+        <f t="shared" si="3"/>
         <v>214339.06931983863</v>
       </c>
     </row>
@@ -11936,51 +12056,51 @@
         <v>15</v>
       </c>
       <c r="G22" s="27">
-        <f>K21</f>
+        <f t="shared" si="4"/>
         <v>283748.23276983126</v>
       </c>
       <c r="H22" s="27">
-        <f>-$D$23</f>
+        <f t="shared" si="5"/>
         <v>8700</v>
       </c>
       <c r="I22" s="27">
-        <f>$D$22</f>
+        <f t="shared" si="6"/>
         <v>3300</v>
       </c>
       <c r="J22" s="27">
-        <f>G22*$K$3</f>
+        <f t="shared" si="0"/>
         <v>21754.977006462963</v>
       </c>
       <c r="K22" s="28">
-        <f>SUM(G22:J22)</f>
+        <f t="shared" si="1"/>
         <v>317503.20977629424</v>
       </c>
       <c r="M22" s="8">
         <v>15</v>
       </c>
       <c r="N22" s="27">
-        <f>R21</f>
+        <f t="shared" si="7"/>
         <v>214339.06931983863</v>
       </c>
       <c r="O22" s="27">
-        <f>-$D$23</f>
+        <f t="shared" si="8"/>
         <v>8700</v>
       </c>
       <c r="P22" s="27">
         <v>0</v>
       </c>
       <c r="Q22" s="27">
-        <f>N22*$K$3</f>
+        <f t="shared" si="2"/>
         <v>16433.37644475203</v>
       </c>
       <c r="R22" s="28">
-        <f>SUM(N22:Q22)</f>
+        <f t="shared" si="3"/>
         <v>239472.44576459067</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1">
         <f>D22-D11</f>
@@ -12078,7 +12198,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="M29" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -12088,39 +12208,39 @@
     </row>
     <row r="30" spans="1:18">
       <c r="M30" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="R30" s="1">
-        <f>K26</f>
-        <v>285752.88879866485</v>
+        <f>R25</f>
+        <v>15850.8668646886</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="M31" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="4">
-        <f>R26</f>
-        <v>223621.57889990206</v>
+        <f>K25</f>
+        <v>31750.320977629432</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="F32" s="5"/>
       <c r="Q32" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R32" s="13">
-        <f>R31-R30</f>
-        <v>-62131.309898762789</v>
+        <f>R30-R31</f>
+        <v>-15899.454112940832</v>
       </c>
     </row>
     <row r="36" spans="6:18" ht="15.6">
       <c r="F36" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
@@ -12128,7 +12248,7 @@
       <c r="J36" s="23"/>
       <c r="K36" s="24"/>
       <c r="M36" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
@@ -12180,7 +12300,7 @@
     </row>
     <row r="42" spans="6:18">
       <c r="F42" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G42" s="30" t="s">
         <v>13</v>
@@ -12189,16 +12309,16 @@
         <v>14</v>
       </c>
       <c r="I42" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J42" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K42" s="30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N42" s="30" t="s">
         <v>13</v>
@@ -12207,13 +12327,13 @@
         <v>14</v>
       </c>
       <c r="P42" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q42" s="30" t="s">
         <v>15</v>
       </c>
       <c r="R42" s="30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="6:18">
@@ -12231,11 +12351,11 @@
         <v>0</v>
       </c>
       <c r="J43" s="26">
-        <f>G43*$K$3</f>
+        <f t="shared" ref="J43:J57" si="9">G43*$K$3</f>
         <v>0</v>
       </c>
       <c r="K43" s="26">
-        <f>SUM(G43:J43)</f>
+        <f t="shared" ref="K43:K57" si="10">SUM(G43:J43)</f>
         <v>12000</v>
       </c>
       <c r="M43" s="5">
@@ -12245,18 +12365,18 @@
         <v>0</v>
       </c>
       <c r="O43" s="26">
-        <f t="shared" ref="O43:O57" si="0">$D$11</f>
+        <f t="shared" ref="O43:O57" si="11">$D$11</f>
         <v>12000</v>
       </c>
       <c r="P43" s="26">
         <v>0</v>
       </c>
       <c r="Q43" s="26">
-        <f>N43*$K$3</f>
+        <f t="shared" ref="Q43:Q57" si="12">N43*$K$3</f>
         <v>0</v>
       </c>
       <c r="R43" s="26">
-        <f>SUM(N43:Q43)</f>
+        <f t="shared" ref="R43:R57" si="13">SUM(N43:Q43)</f>
         <v>12000</v>
       </c>
     </row>
@@ -12265,7 +12385,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="26">
-        <f>K43</f>
+        <f t="shared" ref="G44:G57" si="14">K43</f>
         <v>12000</v>
       </c>
       <c r="H44" s="26">
@@ -12277,33 +12397,33 @@
         <v>3300</v>
       </c>
       <c r="J44" s="26">
-        <f>G44*$K$3</f>
+        <f t="shared" si="9"/>
         <v>920.04000000000008</v>
       </c>
       <c r="K44" s="26">
-        <f>SUM(G44:J44)</f>
+        <f t="shared" si="10"/>
         <v>24920.04</v>
       </c>
       <c r="M44" s="5">
         <v>2</v>
       </c>
       <c r="N44" s="26">
-        <f>R43</f>
+        <f t="shared" ref="N44:N57" si="15">R43</f>
         <v>12000</v>
       </c>
       <c r="O44" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>12000</v>
       </c>
       <c r="P44" s="26">
         <v>0</v>
       </c>
       <c r="Q44" s="26">
-        <f>N44*$K$3</f>
+        <f t="shared" si="12"/>
         <v>920.04000000000008</v>
       </c>
       <c r="R44" s="26">
-        <f>SUM(N44:Q44)</f>
+        <f t="shared" si="13"/>
         <v>24920.04</v>
       </c>
     </row>
@@ -12312,45 +12432,45 @@
         <v>3</v>
       </c>
       <c r="G45" s="26">
-        <f>K44</f>
+        <f t="shared" si="14"/>
         <v>24920.04</v>
       </c>
       <c r="H45" s="26">
-        <f t="shared" ref="H45:H57" si="1">-$D$23</f>
+        <f t="shared" ref="H45:H57" si="16">-$D$23</f>
         <v>8700</v>
       </c>
       <c r="I45" s="26">
-        <f t="shared" ref="I45:I57" si="2">$D$22</f>
+        <f t="shared" ref="I45:I57" si="17">$D$22</f>
         <v>3300</v>
       </c>
       <c r="J45" s="26">
-        <f>G45*$K$3</f>
+        <f t="shared" si="9"/>
         <v>1910.6194668000001</v>
       </c>
       <c r="K45" s="26">
-        <f>SUM(G45:J45)</f>
+        <f t="shared" si="10"/>
         <v>38830.659466800003</v>
       </c>
       <c r="M45" s="5">
         <v>3</v>
       </c>
       <c r="N45" s="26">
-        <f>R44</f>
+        <f t="shared" si="15"/>
         <v>24920.04</v>
       </c>
       <c r="O45" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>12000</v>
       </c>
       <c r="P45" s="26">
         <v>0</v>
       </c>
       <c r="Q45" s="26">
-        <f>N45*$K$3</f>
+        <f t="shared" si="12"/>
         <v>1910.6194668000001</v>
       </c>
       <c r="R45" s="26">
-        <f>SUM(N45:Q45)</f>
+        <f t="shared" si="13"/>
         <v>38830.659466800003</v>
       </c>
     </row>
@@ -12359,45 +12479,45 @@
         <v>4</v>
       </c>
       <c r="G46" s="26">
-        <f>K45</f>
+        <f t="shared" si="14"/>
         <v>38830.659466800003</v>
       </c>
       <c r="H46" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>8700</v>
       </c>
       <c r="I46" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>3300</v>
       </c>
       <c r="J46" s="26">
-        <f>G46*$K$3</f>
+        <f t="shared" si="9"/>
         <v>2977.1466613195562</v>
       </c>
       <c r="K46" s="26">
-        <f>SUM(G46:J46)</f>
+        <f t="shared" si="10"/>
         <v>53807.806128119562</v>
       </c>
       <c r="M46" s="5">
         <v>4</v>
       </c>
       <c r="N46" s="26">
-        <f>R45</f>
+        <f t="shared" si="15"/>
         <v>38830.659466800003</v>
       </c>
       <c r="O46" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>12000</v>
       </c>
       <c r="P46" s="26">
         <v>0</v>
       </c>
       <c r="Q46" s="26">
-        <f>N46*$K$3</f>
+        <f t="shared" si="12"/>
         <v>2977.1466613195562</v>
       </c>
       <c r="R46" s="26">
-        <f>SUM(N46:Q46)</f>
+        <f t="shared" si="13"/>
         <v>53807.806128119562</v>
       </c>
     </row>
@@ -12406,45 +12526,45 @@
         <v>5</v>
       </c>
       <c r="G47" s="26">
-        <f>K46</f>
+        <f t="shared" si="14"/>
         <v>53807.806128119562</v>
       </c>
       <c r="H47" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>8700</v>
       </c>
       <c r="I47" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>3300</v>
       </c>
       <c r="J47" s="26">
-        <f>G47*$K$3</f>
+        <f t="shared" si="9"/>
         <v>4125.4444958429267</v>
       </c>
       <c r="K47" s="26">
-        <f>SUM(G47:J47)</f>
+        <f t="shared" si="10"/>
         <v>69933.250623962478</v>
       </c>
       <c r="M47" s="5">
         <v>5</v>
       </c>
       <c r="N47" s="26">
-        <f>R46</f>
+        <f t="shared" si="15"/>
         <v>53807.806128119562</v>
       </c>
       <c r="O47" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>12000</v>
       </c>
       <c r="P47" s="26">
         <v>0</v>
       </c>
       <c r="Q47" s="26">
-        <f>N47*$K$3</f>
+        <f t="shared" si="12"/>
         <v>4125.4444958429267</v>
       </c>
       <c r="R47" s="26">
-        <f>SUM(N47:Q47)</f>
+        <f t="shared" si="13"/>
         <v>69933.250623962478</v>
       </c>
     </row>
@@ -12453,45 +12573,45 @@
         <v>6</v>
       </c>
       <c r="G48" s="26">
-        <f>K47</f>
+        <f t="shared" si="14"/>
         <v>69933.250623962478</v>
       </c>
       <c r="H48" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>8700</v>
       </c>
       <c r="I48" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>3300</v>
       </c>
       <c r="J48" s="26">
-        <f>G48*$K$3</f>
+        <f t="shared" si="9"/>
         <v>5361.7823253392035</v>
       </c>
       <c r="K48" s="26">
-        <f>SUM(G48:J48)</f>
+        <f t="shared" si="10"/>
         <v>87295.032949301676</v>
       </c>
       <c r="M48" s="5">
         <v>6</v>
       </c>
       <c r="N48" s="26">
-        <f>R47</f>
+        <f t="shared" si="15"/>
         <v>69933.250623962478</v>
       </c>
       <c r="O48" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>12000</v>
       </c>
       <c r="P48" s="26">
         <v>0</v>
       </c>
       <c r="Q48" s="26">
-        <f>N48*$K$3</f>
+        <f t="shared" si="12"/>
         <v>5361.7823253392035</v>
       </c>
       <c r="R48" s="26">
-        <f>SUM(N48:Q48)</f>
+        <f t="shared" si="13"/>
         <v>87295.032949301676</v>
       </c>
     </row>
@@ -12500,45 +12620,45 @@
         <v>7</v>
       </c>
       <c r="G49" s="26">
-        <f>K48</f>
+        <f t="shared" si="14"/>
         <v>87295.032949301676</v>
       </c>
       <c r="H49" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>8700</v>
       </c>
       <c r="I49" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>3300</v>
       </c>
       <c r="J49" s="26">
-        <f>G49*$K$3</f>
+        <f t="shared" si="9"/>
         <v>6692.9101762229593</v>
       </c>
       <c r="K49" s="26">
-        <f>SUM(G49:J49)</f>
+        <f t="shared" si="10"/>
         <v>105987.94312552463</v>
       </c>
       <c r="M49" s="5">
         <v>7</v>
       </c>
       <c r="N49" s="26">
-        <f>R48</f>
+        <f t="shared" si="15"/>
         <v>87295.032949301676</v>
       </c>
       <c r="O49" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>12000</v>
       </c>
       <c r="P49" s="26">
         <v>0</v>
       </c>
       <c r="Q49" s="26">
-        <f>N49*$K$3</f>
+        <f t="shared" si="12"/>
         <v>6692.9101762229593</v>
       </c>
       <c r="R49" s="26">
-        <f>SUM(N49:Q49)</f>
+        <f t="shared" si="13"/>
         <v>105987.94312552463</v>
       </c>
     </row>
@@ -12547,45 +12667,45 @@
         <v>8</v>
       </c>
       <c r="G50" s="26">
-        <f>K49</f>
+        <f t="shared" si="14"/>
         <v>105987.94312552463</v>
       </c>
       <c r="H50" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>8700</v>
       </c>
       <c r="I50" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>3300</v>
       </c>
       <c r="J50" s="26">
-        <f>G50*$K$3</f>
+        <f t="shared" si="9"/>
         <v>8126.0955994339738</v>
       </c>
       <c r="K50" s="26">
-        <f>SUM(G50:J50)</f>
+        <f t="shared" si="10"/>
         <v>126114.03872495861</v>
       </c>
       <c r="M50" s="5">
         <v>8</v>
       </c>
       <c r="N50" s="26">
-        <f>R49</f>
+        <f t="shared" si="15"/>
         <v>105987.94312552463</v>
       </c>
       <c r="O50" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>12000</v>
       </c>
       <c r="P50" s="26">
         <v>0</v>
       </c>
       <c r="Q50" s="26">
-        <f>N50*$K$3</f>
+        <f t="shared" si="12"/>
         <v>8126.0955994339738</v>
       </c>
       <c r="R50" s="26">
-        <f>SUM(N50:Q50)</f>
+        <f t="shared" si="13"/>
         <v>126114.03872495861</v>
       </c>
     </row>
@@ -12594,45 +12714,45 @@
         <v>9</v>
       </c>
       <c r="G51" s="26">
-        <f>K50</f>
+        <f t="shared" si="14"/>
         <v>126114.03872495861</v>
       </c>
       <c r="H51" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>8700</v>
       </c>
       <c r="I51" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>3300</v>
       </c>
       <c r="J51" s="26">
-        <f>G51*$K$3</f>
+        <f t="shared" si="9"/>
         <v>9669.1633490425756</v>
       </c>
       <c r="K51" s="26">
-        <f>SUM(G51:J51)</f>
+        <f t="shared" si="10"/>
         <v>147783.20207400119</v>
       </c>
       <c r="M51" s="5">
         <v>9</v>
       </c>
       <c r="N51" s="26">
-        <f>R50</f>
+        <f t="shared" si="15"/>
         <v>126114.03872495861</v>
       </c>
       <c r="O51" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>12000</v>
       </c>
       <c r="P51" s="26">
         <v>0</v>
       </c>
       <c r="Q51" s="26">
-        <f>N51*$K$3</f>
+        <f t="shared" si="12"/>
         <v>9669.1633490425756</v>
       </c>
       <c r="R51" s="26">
-        <f>SUM(N51:Q51)</f>
+        <f t="shared" si="13"/>
         <v>147783.20207400119</v>
       </c>
     </row>
@@ -12641,45 +12761,45 @@
         <v>10</v>
       </c>
       <c r="G52" s="26">
-        <f>K51</f>
+        <f t="shared" si="14"/>
         <v>147783.20207400119</v>
       </c>
       <c r="H52" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>8700</v>
       </c>
       <c r="I52" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>3300</v>
       </c>
       <c r="J52" s="26">
-        <f>G52*$K$3</f>
+        <f t="shared" si="9"/>
         <v>11330.538103013672</v>
       </c>
       <c r="K52" s="26">
-        <f>SUM(G52:J52)</f>
+        <f t="shared" si="10"/>
         <v>171113.74017701487</v>
       </c>
       <c r="M52" s="5">
         <v>10</v>
       </c>
       <c r="N52" s="26">
-        <f>R51</f>
+        <f t="shared" si="15"/>
         <v>147783.20207400119</v>
       </c>
       <c r="O52" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>12000</v>
       </c>
       <c r="P52" s="26">
         <v>0</v>
       </c>
       <c r="Q52" s="26">
-        <f>N52*$K$3</f>
+        <f t="shared" si="12"/>
         <v>11330.538103013672</v>
       </c>
       <c r="R52" s="26">
-        <f>SUM(N52:Q52)</f>
+        <f t="shared" si="13"/>
         <v>171113.74017701487</v>
       </c>
     </row>
@@ -12688,45 +12808,45 @@
         <v>11</v>
       </c>
       <c r="G53" s="26">
-        <f>K52</f>
+        <f t="shared" si="14"/>
         <v>171113.74017701487</v>
       </c>
       <c r="H53" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>8700</v>
       </c>
       <c r="I53" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>3300</v>
       </c>
       <c r="J53" s="26">
-        <f>G53*$K$3</f>
+        <f t="shared" si="9"/>
         <v>13119.29045937173</v>
       </c>
       <c r="K53" s="26">
-        <f>SUM(G53:J53)</f>
+        <f t="shared" si="10"/>
         <v>196233.0306363866</v>
       </c>
       <c r="M53" s="5">
         <v>11</v>
       </c>
       <c r="N53" s="26">
-        <f>R52</f>
+        <f t="shared" si="15"/>
         <v>171113.74017701487</v>
       </c>
       <c r="O53" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>12000</v>
       </c>
       <c r="P53" s="26">
         <v>0</v>
       </c>
       <c r="Q53" s="26">
-        <f>N53*$K$3</f>
+        <f t="shared" si="12"/>
         <v>13119.29045937173</v>
       </c>
       <c r="R53" s="26">
-        <f>SUM(N53:Q53)</f>
+        <f t="shared" si="13"/>
         <v>196233.0306363866</v>
       </c>
     </row>
@@ -12735,45 +12855,45 @@
         <v>12</v>
       </c>
       <c r="G54" s="26">
-        <f>K53</f>
+        <f t="shared" si="14"/>
         <v>196233.0306363866</v>
       </c>
       <c r="H54" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>8700</v>
       </c>
       <c r="I54" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>3300</v>
       </c>
       <c r="J54" s="26">
-        <f>G54*$K$3</f>
+        <f t="shared" si="9"/>
         <v>15045.186458891762</v>
       </c>
       <c r="K54" s="26">
-        <f>SUM(G54:J54)</f>
+        <f t="shared" si="10"/>
         <v>223278.21709527835</v>
       </c>
       <c r="M54" s="5">
         <v>12</v>
       </c>
       <c r="N54" s="26">
-        <f>R53</f>
+        <f t="shared" si="15"/>
         <v>196233.0306363866</v>
       </c>
       <c r="O54" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>12000</v>
       </c>
       <c r="P54" s="26">
         <v>0</v>
       </c>
       <c r="Q54" s="26">
-        <f>N54*$K$3</f>
+        <f t="shared" si="12"/>
         <v>15045.186458891762</v>
       </c>
       <c r="R54" s="26">
-        <f>SUM(N54:Q54)</f>
+        <f t="shared" si="13"/>
         <v>223278.21709527835</v>
       </c>
     </row>
@@ -12782,45 +12902,45 @@
         <v>13</v>
       </c>
       <c r="G55" s="26">
-        <f>K54</f>
+        <f t="shared" si="14"/>
         <v>223278.21709527835</v>
       </c>
       <c r="H55" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>8700</v>
       </c>
       <c r="I55" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>3300</v>
       </c>
       <c r="J55" s="26">
-        <f>G55*$K$3</f>
+        <f t="shared" si="9"/>
         <v>17118.740904694991</v>
       </c>
       <c r="K55" s="26">
-        <f>SUM(G55:J55)</f>
+        <f t="shared" si="10"/>
         <v>252396.95799997333</v>
       </c>
       <c r="M55" s="5">
         <v>13</v>
       </c>
       <c r="N55" s="26">
-        <f>R54</f>
+        <f t="shared" si="15"/>
         <v>223278.21709527835</v>
       </c>
       <c r="O55" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>12000</v>
       </c>
       <c r="P55" s="26">
         <v>0</v>
       </c>
       <c r="Q55" s="26">
-        <f>N55*$K$3</f>
+        <f t="shared" si="12"/>
         <v>17118.740904694991</v>
       </c>
       <c r="R55" s="26">
-        <f>SUM(N55:Q55)</f>
+        <f t="shared" si="13"/>
         <v>252396.95799997333</v>
       </c>
     </row>
@@ -12829,45 +12949,45 @@
         <v>14</v>
       </c>
       <c r="G56" s="26">
-        <f>K55</f>
+        <f t="shared" si="14"/>
         <v>252396.95799997333</v>
       </c>
       <c r="H56" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>8700</v>
       </c>
       <c r="I56" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>3300</v>
       </c>
       <c r="J56" s="26">
-        <f>G56*$K$3</f>
+        <f t="shared" si="9"/>
         <v>19351.274769857955</v>
       </c>
       <c r="K56" s="26">
-        <f>SUM(G56:J56)</f>
+        <f t="shared" si="10"/>
         <v>283748.23276983126</v>
       </c>
       <c r="M56" s="5">
         <v>14</v>
       </c>
       <c r="N56" s="26">
-        <f>R55</f>
+        <f t="shared" si="15"/>
         <v>252396.95799997333</v>
       </c>
       <c r="O56" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>12000</v>
       </c>
       <c r="P56" s="26">
         <v>0</v>
       </c>
       <c r="Q56" s="26">
-        <f>N56*$K$3</f>
+        <f t="shared" si="12"/>
         <v>19351.274769857955</v>
       </c>
       <c r="R56" s="26">
-        <f>SUM(N56:Q56)</f>
+        <f t="shared" si="13"/>
         <v>283748.23276983126</v>
       </c>
     </row>
@@ -12876,45 +12996,45 @@
         <v>15</v>
       </c>
       <c r="G57" s="27">
-        <f>K56</f>
+        <f t="shared" si="14"/>
         <v>283748.23276983126</v>
       </c>
       <c r="H57" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>8700</v>
       </c>
       <c r="I57" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>3300</v>
       </c>
       <c r="J57" s="27">
-        <f>G57*$K$3</f>
+        <f t="shared" si="9"/>
         <v>21754.977006462963</v>
       </c>
       <c r="K57" s="28">
-        <f>SUM(G57:J57)</f>
+        <f t="shared" si="10"/>
         <v>317503.20977629424</v>
       </c>
       <c r="M57" s="8">
         <v>15</v>
       </c>
       <c r="N57" s="27">
-        <f>R56</f>
+        <f t="shared" si="15"/>
         <v>283748.23276983126</v>
       </c>
       <c r="O57" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>12000</v>
       </c>
       <c r="P57" s="27">
         <v>0</v>
       </c>
       <c r="Q57" s="27">
-        <f>N57*$K$3</f>
+        <f t="shared" si="12"/>
         <v>21754.977006462963</v>
       </c>
       <c r="R57" s="28">
-        <f>SUM(N57:Q57)</f>
+        <f t="shared" si="13"/>
         <v>317503.20977629424</v>
       </c>
     </row>
@@ -13003,7 +13123,7 @@
     </row>
     <row r="64" spans="6:18">
       <c r="M64" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -13019,8 +13139,8 @@
         <f>D22</f>
         <v>3300</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>23</v>
+      <c r="M65" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="R65" s="1">
         <f>K60</f>
@@ -13040,7 +13160,7 @@
         <v>15</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -13063,17 +13183,17 @@
         <f>K65*K66</f>
         <v>49500</v>
       </c>
-      <c r="Q67" t="s">
-        <v>26</v>
-      </c>
-      <c r="R67" s="1">
+      <c r="Q67" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R67" s="13">
         <f>R66-R65</f>
         <v>38375.160488814705</v>
       </c>
     </row>
     <row r="72" spans="6:18" ht="15.6">
       <c r="F72" s="23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G72" s="23"/>
       <c r="H72" s="23"/>
@@ -13083,16 +13203,16 @@
     </row>
     <row r="73" spans="6:18">
       <c r="F73" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K73" s="1">
-        <f>-R32</f>
-        <v>62131.309898762789</v>
+        <f>R32</f>
+        <v>-15899.454112940832</v>
       </c>
     </row>
     <row r="74" spans="6:18">
       <c r="F74" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -13104,12 +13224,19 @@
       </c>
     </row>
     <row r="75" spans="6:18">
-      <c r="F75" t="s">
-        <v>37</v>
-      </c>
-      <c r="K75" s="1">
-        <f>K73-K74</f>
-        <v>23756.149409948084</v>
+      <c r="F75" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="13">
+        <f>SUM(K73:K74)</f>
+        <v>22475.706375873873</v>
+      </c>
+      <c r="N75" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="1048553" spans="8:10">
@@ -13124,7 +13251,8 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/007 - Análise de Viabilidade Sobre  um  Plano Gerador de Benefício Livre - PGBL/007 - Análise de Viabilidade Sobre  um  Plano Gerador de Benefício Livre - PGBL.xlsx
+++ b/007 - Análise de Viabilidade Sobre  um  Plano Gerador de Benefício Livre - PGBL/007 - Análise de Viabilidade Sobre  um  Plano Gerador de Benefício Livre - PGBL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marqu\Documents\Code\007 - Análise de Rendimentos Sobre  um  Plano Gerador de Benefício Livre - PGBL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4527F110-86CD-4AEF-95BE-3E99F2D81C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1892978-848A-454B-A399-45046393BF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B76E65C5-79C3-44EE-8269-1F2173E76360}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>supondo uma renda anual bruta de</t>
   </si>
@@ -132,15 +132,6 @@
     <t>Diferença:</t>
   </si>
   <si>
-    <t>Hipotese 1</t>
-  </si>
-  <si>
-    <t>Hipotese 2</t>
-  </si>
-  <si>
-    <t>Rentabilidade das deduções</t>
-  </si>
-  <si>
     <t xml:space="preserve">Logo conseguimos uma diferença da tributação ao longo do tempo: </t>
   </si>
   <si>
@@ -150,16 +141,28 @@
     <t>CDB</t>
   </si>
   <si>
-    <t>Dispêndio do CDB: (trib + 3.300 anual)</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Dispêndio CDB:</t>
+    <t>Líquido PBGL</t>
   </si>
   <si>
-    <t>Dispêndio do PGBL:</t>
+    <t>Líquido CDB</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Rendimento Líquido PGBL</t>
+  </si>
+  <si>
+    <t>Rendimento Líquido CDB</t>
+  </si>
+  <si>
+    <t>Hipotese 1 [H1]</t>
+  </si>
+  <si>
+    <t>Hipotese 2 [H2]</t>
+  </si>
+  <si>
+    <t>Rentabilidade das deduções [K]</t>
   </si>
 </sst>
 </file>
@@ -262,7 +265,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -315,9 +318,6 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11061,8 +11061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36000C65-8369-46B2-8998-BD6A74AAEDFB}">
   <dimension ref="A1:R1048553"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D32" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -11237,7 +11237,7 @@
         <v>15</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>26</v>
@@ -11255,7 +11255,7 @@
         <v>15</v>
       </c>
       <c r="R7" s="30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -12208,24 +12208,24 @@
     </row>
     <row r="30" spans="1:18">
       <c r="M30" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R30" s="1">
-        <f>R25</f>
-        <v>15850.8668646886</v>
+        <f>K26</f>
+        <v>285752.88879866485</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="M31" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="4">
-        <f>K25</f>
-        <v>31750.320977629432</v>
+        <f>R26</f>
+        <v>223621.57889990206</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -12235,7 +12235,7 @@
       </c>
       <c r="R32" s="13">
         <f>R30-R31</f>
-        <v>-15899.454112940832</v>
+        <v>62131.309898762789</v>
       </c>
     </row>
     <row r="36" spans="6:18" ht="15.6">
@@ -12315,7 +12315,7 @@
         <v>15</v>
       </c>
       <c r="K42" s="30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>26</v>
@@ -12333,7 +12333,7 @@
         <v>15</v>
       </c>
       <c r="R42" s="30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="6:18">
@@ -13139,12 +13139,12 @@
         <f>D22</f>
         <v>3300</v>
       </c>
-      <c r="M65" s="31" t="s">
+      <c r="M65" s="5" t="s">
         <v>37</v>
       </c>
       <c r="R65" s="1">
-        <f>K60</f>
-        <v>31750.320977629432</v>
+        <f>K61</f>
+        <v>285752.88879866485</v>
       </c>
     </row>
     <row r="66" spans="6:18">
@@ -13160,15 +13160,15 @@
         <v>15</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="4">
-        <f>K67+R60</f>
-        <v>70125.481466444136</v>
+        <f>R61</f>
+        <v>296877.72830985015</v>
       </c>
     </row>
     <row r="67" spans="6:18">
@@ -13187,32 +13187,39 @@
         <v>24</v>
       </c>
       <c r="R67" s="13">
-        <f>R66-R65</f>
-        <v>38375.160488814705</v>
-      </c>
+        <f>R65-R66</f>
+        <v>-11124.839511185302</v>
+      </c>
+    </row>
+    <row r="70" spans="6:18">
+      <c r="R70" s="1"/>
+    </row>
+    <row r="71" spans="6:18">
+      <c r="R71" s="1"/>
     </row>
     <row r="72" spans="6:18" ht="15.6">
       <c r="F72" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G72" s="23"/>
       <c r="H72" s="23"/>
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
       <c r="K72" s="23"/>
+      <c r="R72" s="1"/>
     </row>
     <row r="73" spans="6:18">
       <c r="F73" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K73" s="1">
         <f>R32</f>
-        <v>-15899.454112940832</v>
+        <v>62131.309898762789</v>
       </c>
     </row>
     <row r="74" spans="6:18">
       <c r="F74" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -13220,12 +13227,12 @@
       <c r="J74" s="3"/>
       <c r="K74" s="4">
         <f>R67</f>
-        <v>38375.160488814705</v>
+        <v>-11124.839511185302</v>
       </c>
     </row>
     <row r="75" spans="6:18">
       <c r="F75" s="19" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
@@ -13233,10 +13240,10 @@
       <c r="J75" s="19"/>
       <c r="K75" s="13">
         <f>SUM(K73:K74)</f>
-        <v>22475.706375873873</v>
+        <v>51006.470387577487</v>
       </c>
       <c r="N75" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1048553" spans="8:10">
